--- a/FrontReact/public/respuestas.xlsx
+++ b/FrontReact/public/respuestas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Proyecto-alimentos\FrontReact\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{769ABAD5-5743-44CF-A560-207A11724362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208AB77A-A569-44E1-8803-3A3AE87162BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{34A8AA31-05C4-4284-B9F3-D71E89C8D00E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{34A8AA31-05C4-4284-B9F3-D71E89C8D00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>pregunta</t>
   </si>
@@ -72,13 +72,22 @@
   </si>
   <si>
     <t>Estamos ubicados en la Av. Principal 123, Quito. ¡Te esperamos!</t>
+  </si>
+  <si>
+    <t>es_opcion_rapida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false </t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +97,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -115,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -123,6 +140,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,61 +475,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE4B9A6-A165-439D-80AB-991968B175C3}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
